--- a/interview prep.xlsx
+++ b/interview prep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\InterviewPrep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Interview-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C5C446-D1BE-4C9F-9FAE-6CB8997604D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18D3984-9F19-46CB-86A0-C955078C95C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1088">
   <si>
     <t>This list is prepared by pepcoding for helping students prepare for upcoming interviews.
 Going forward, pepcoding has decided to make all it's current and future content available to students free of cost.
@@ -4132,7 +4132,7 @@
   <dimension ref="A1:AC929"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4510,7 +4510,9 @@
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
@@ -4571,7 +4573,9 @@
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
@@ -4590,7 +4594,9 @@
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
@@ -4651,7 +4657,9 @@
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
@@ -4774,7 +4782,9 @@
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
